--- a/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_g1.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2500&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2180&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A19A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1D90&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1FC0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A21F0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2490&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1B60&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1CB0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1C40&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1D20&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1E00&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A22D0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1E70&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A23B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1F50&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2570&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A20A0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2420&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2110&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2260&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A25E0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A18C0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1BD0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2650&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A26C0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2730&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A27A0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2810&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2880&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A28F0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2960&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A29D0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2A40&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2AB0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2B20&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2B90&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2C00&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2C70&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2CE0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2D50&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2DC0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2E30&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2EA0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2F10&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2F80&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2FF0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A3060&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A30D0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A3140&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_g1.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL517163</t>
+          <t>CHEMBL379300</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3cccc4c3C(=O)NC4)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3cccc4c3C(=O)NC4)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>512.5700000000001</v>
+        <v>397.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>127.51</v>
+        <v>92.61</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC430&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL203624</t>
+          <t>CHEMBL1171647</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>369.47</v>
+        <v>400.43</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>79.62</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCB30&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL575448</t>
+          <t>CHEMBL575811</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2ccc(F)nc2)CCCN1c1nc(Nc2cc(C3CC3)[nH]n2)c2cccn2n1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(Cc2ccco2)C(=O)N3)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2ccc(F)nc2)CCCN1c1nc(Nc2cc(C3CC3)[nH]n2)c2cccn2n1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(Cc2ccco2)C(=O)N3)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>461.51</v>
+        <v>439.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>116.13</v>
+        <v>90.38</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD9A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL521851</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)N1CCN(Cc2cc3nc(-c4cccc5[nH]ncc45)nc(N4CCOCC4)c3s2)CC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)N1CCN(Cc2cc3nc(-c4cccc5[nH]ncc45)nc(N4CCOCC4)c3s2)CC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>513.65</v>
+        <v>466.54</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>107.55</v>
+        <v>69.45</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BDC40&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL595349</t>
+          <t>CHEMBL258837</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=P(O)(O)Oc1ccc(OP(=O)(O)O)c(OP(=O)(O)O)c1OP(=O)(O)O</t>
+          <t>N#Cc1c[nH]c2ncnc(N3CC4(CCNCC4)c4ccccc43)c12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=P(O)(O)Oc1ccc(OP(=O)(O)O)c(OP(=O)(O)O)c1OP(=O)(O)O</t>
+          <t>N#Cc1c[nH]c2ncnc(N3CC4(CCNCC4)c4ccccc43)c12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>462.03</v>
+        <v>330.39</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>267.04</v>
+        <v>80.63</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BDE70&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL228654</t>
+          <t>CHEMBL517163</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1ccc[nH]1</t>
+          <t>COc1cc2c(cc1Nc1nc(Nc3cccc4c3C(=O)NC4)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1ccc[nH]1</t>
+          <t>COc1cc2c(cc1Nc1nc(Nc3cccc4c3C(=O)NC4)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>282.3</v>
+        <v>512.5700000000001</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>100.01</v>
+        <v>127.51</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BE730&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL603852</t>
+          <t>CHEMBL1080569</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC1=NN(C(=O)c2ccc(Cl)cc2)C(=O)C1N=Nc1ccc(S(=O)(=O)Nc2ncccn2)cc1</t>
+          <t>N[C@H](CNc1nnc(-c2ccc3cnccc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC1=NN(C(=O)c2ccc(Cl)cc2)C(=O)C1N=Nc1ccc(S(=O)(=O)Nc2ncccn2)cc1</t>
+          <t>N[C@H](CNc1nnc(-c2ccc3cnccc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>497.92</v>
+        <v>429.47</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -998,10 +998,10 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>146.41</v>
+        <v>76.72</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BE810&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL286737</t>
+          <t>CHEMBL262341</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nc1ccc(S(=O)(=O)Nc2nncs2)cc1</t>
+          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nc1ccc(S(=O)(=O)Nc2nncs2)cc1</t>
+          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>256.31</v>
+        <v>539.64</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>97.97</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BEFF0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL395080</t>
+          <t>CHEMBL254099</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COc1cc(-c2ccc3c(c2)Nc2ccc(CC(=O)Nc4ccc(N5CCOCC5)cc4)cc2NC3=O)ccc1N</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COc1cc(-c2ccc3c(c2)Nc2ccc(CC(=O)Nc4ccc(N5CCOCC5)cc4)cc2NC3=O)ccc1N</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>549.63</v>
+        <v>570.73</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
         <v>7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
       <c r="M10" t="n">
-        <v>117.95</v>
+        <v>96.37</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BFED0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL211827</t>
+          <t>CHEMBL213618</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,44 +1168,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1n[nH]c2ccccc12</t>
+          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1n[nH]c2ccccc12</t>
+          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>395.47</v>
+        <v>436.37</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>89.70999999999999</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC040&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL599448</t>
+          <t>CHEMBL594755</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,44 +1236,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>383.88</v>
+        <v>455.52</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>87.04000000000001</v>
+        <v>141.76</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC0B0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL470192</t>
+          <t>CHEMBL603675</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,44 +1304,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1ccc(-c2c[nH]c3ncccc23)s1)c1ccccc1</t>
+          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1ccc(-c2c[nH]c3ncccc23)s1)c1ccccc1</t>
+          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>362.46</v>
+        <v>363.51</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
       <c r="M13" t="n">
-        <v>83.8</v>
+        <v>70.83</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC120&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL255592</t>
+          <t>CHEMBL1079175</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,44 +1372,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cn1c(=O)n(-c2ccc(C(C)(C)C#N)cc2)c2c3cc(C#Cc4cccnc4)ccc3ncc21</t>
+          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cn1c(=O)n(-c2ccc(C(C)(C)C#N)cc2)c2c3cc(C#Cc4cccnc4)ccc3ncc21</t>
+          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>443.51</v>
+        <v>407.48</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>76.5</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC190&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1173384</t>
+          <t>CHEMBL575448</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,44 +1440,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cc1c[nH]c2ncnc(N3CCC(N)(CNC=O)C3)c12</t>
+          <t>C[C@@]1(C(=O)Nc2ccc(F)nc2)CCCN1c1nc(Nc2cc(C3CC3)[nH]n2)c2cccn2n1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cc1c[nH]c2ncnc(N3CCC(N)(CNC=O)C3)c12</t>
+          <t>C[C@@]1(C(=O)Nc2ccc(F)nc2)CCCN1c1nc(Nc2cc(C3CC3)[nH]n2)c2cccn2n1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>274.33</v>
+        <v>461.51</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>99.93000000000001</v>
+        <v>116.13</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC200&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL493360</t>
+          <t>CHEMBL521851</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,44 +1508,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C1C[C@H]2O[C@@H](c3ccc(O)cc3)C3=C(C(=O)c4ccccc4C3=O)[C@H]2O1</t>
+          <t>CS(=O)(=O)N1CCN(Cc2cc3nc(-c4cccc5[nH]ncc45)nc(N4CCOCC4)c3s2)CC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C1C[C@H]2O[C@@H](c3ccc(O)cc3)C3=C(C(=O)c4ccccc4C3=O)[C@H]2O1</t>
+          <t>CS(=O)(=O)N1CCN(Cc2cc3nc(-c4cccc5[nH]ncc45)nc(N4CCOCC4)c3s2)CC1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>362.34</v>
+        <v>513.65</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>89.90000000000001</v>
+        <v>107.55</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC270&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL425155</t>
+          <t>CHEMBL261542</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,44 +1576,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
+          <t>c1ccc(-c2nc3ccccc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
+          <t>c1ccc(-c2nc3ccccc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>502.61</v>
+        <v>522.66</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
         <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>105.16</v>
+        <v>70.59</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC2E0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL1202525</t>
+          <t>CHEMBL381703</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,35 +1644,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COc1ccc(O)c(C(=O)c2ccc(CO[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>N[C@H](CNc1cnc(Cl)c(/C=C/c2ccncc2)c1)CC1CNc2ccccc21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COc1ccc(O)c(C(=O)c2ccc(CO[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>N[C@H](CNc1cnc(Cl)c(/C=C/c2ccncc2)c1)CC1CNc2ccccc21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>493.54</v>
+        <v>405.93</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>109.78</v>
+        <v>75.86</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC350&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL407733</t>
+          <t>CHEMBL595349</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,44 +1712,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>O=P(O)(O)Oc1ccc(OP(=O)(O)O)c(OP(=O)(O)O)c1OP(=O)(O)O</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>O=P(O)(O)Oc1ccc(OP(=O)(O)O)c(OP(=O)(O)O)c1OP(=O)(O)O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>522.66</v>
+        <v>462.03</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>70.59</v>
+        <v>267.04</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC3C0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL3679631</t>
+          <t>CHEMBL228654</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,81 +1780,55 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N=C(c1ccccc1)n1c(=N)ccc2nc(-c3ccc(C4(N)CC(F)(F)C4)cc3)c(-c3ccccc3)cc21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1ccc[nH]1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N=C(c1ccccc1)n1c(=N)ccc2nc(-c3ccc(C4(N)CC(F)(F)C4)cc3)c(-c3ccccc3)cc21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1ccc[nH]1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>505.57</v>
+        <v>282.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>91.54000000000001</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>10</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>CHEMBL3705350</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Kinase Assay: Activated Akt isoforms and pleckstrin homology domain deletion constructs were assayed utilizing a GSK-derived biotinylated peptide substrate. The extend of peptide was determined by Homogeneous Time Resolved Fluorescence (HTRF) using a lanthanide chelate (Lance)-coupled monoclonal antibody specific for the phosphopeptide in combination with a streptavidin-linked allophycocyanin (SA-APC) fluorophore which will bind to the biotin moiety on the peptide.</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.01</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC4A0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1866,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL259834</t>
+          <t>CHEMBL428963</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1874,26 +1848,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2cc(Cl)ccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
+          <t>Cc1nnc(-c2ccccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2cc(Cl)ccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
+          <t>Cc1nnc(-c2ccccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>325.76</v>
+        <v>291.32</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -1913,42 +1887,16 @@
       <c r="M21" t="n">
         <v>95.17</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>171</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>CHEMBL936668</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC510&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1960,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL1080561</t>
+          <t>CHEMBL603852</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1968,32 +1916,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4cccc(C(F)(F)F)c4)s3)cc12</t>
+          <t>CC1=NN(C(=O)c2ccc(Cl)cc2)C(=O)C1N=Nc1ccc(S(=O)(=O)Nc2ncccn2)cc1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4cccc(C(F)(F)F)c4)s3)cc12</t>
+          <t>CC1=NN(C(=O)c2ccc(Cl)cc2)C(=O)C1N=Nc1ccc(S(=O)(=O)Nc2ncccn2)cc1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>432.48</v>
+        <v>497.92</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>6</v>
@@ -2002,47 +1950,21 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>CHEMBL1104218</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 after 10 mins by [gamma33]ATP assay</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>146.41</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC580&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2054,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL590109</t>
+          <t>CHEMBL444165</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2062,81 +1984,55 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>CCC[C@H]1O[C@H](CC(=O)O)CC2=C1C(=O)c1c(O)cccc1C2=O</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>CCC[C@H]1O[C@H](CC(=O)O)CC2=C1C(=O)c1c(O)cccc1C2=O</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>425.52</v>
+        <v>330.34</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6</v>
-      </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>111.43</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>CHEMBL1072678</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.9</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC5F0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2148,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL2063990</t>
+          <t>CHEMBL286737</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2156,81 +2052,55 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1cc(C=C(C(=O)/C=C/c2cccc(OC)c2OC)C(=O)/C=C/c2cccc(OC)c2OC)ccc1O</t>
+          <t>Nc1ccc(S(=O)(=O)Nc2nncs2)cc1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1cc(C=C(C(=O)/C=C/c2cccc(OC)c2OC)C(=O)/C=C/c2cccc(OC)c2OC)ccc1O</t>
+          <t>Nc1ccc(S(=O)(=O)Nc2nncs2)cc1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>530.5700000000001</v>
+        <v>256.31</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>810</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>CHEMBL2067501</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 by AKT1/PKBalpha KinEASE FP fluorescein green assay</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>97.97</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC660&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2242,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL3218297</t>
+          <t>CHEMBL493067</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2250,81 +2120,55 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C(NCc1cccc(O)c1)Nc1nc(-c2ccncc2)cs1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C(NCc1cccc(O)c1)Nc1nc(-c2ccncc2)cs1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>326.38</v>
+        <v>356.39</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>87.14</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CHEMBL3224479</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>136.78</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC6D0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2336,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL3892575</t>
+          <t>CHEMBL395080</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2344,81 +2188,55 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nc1ncnc(N2CCC(c3nc(-c4ccc(F)cc4)cn3CCN3CCCC3)CC2)c1C1CCC1</t>
+          <t>COc1cc(-c2ccc3c(c2)Nc2ccc(CC(=O)Nc4ccc(N5CCOCC5)cc4)cc2NC3=O)ccc1N</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nc1ncnc(N2CCC(c3nc(-c4ccc(F)cc4)cn3CCN3CCCC3)CC2)c1C1CCC1</t>
+          <t>COc1cc(-c2ccc3c(c2)Nc2ccc(CC(=O)Nc4ccc(N5CCOCC5)cc4)cc2NC3=O)ccc1N</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>489.64</v>
+        <v>549.63</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
         <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>11</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CHEMBL3887297</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 nl of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.5 .mu.l: 0.1 ng/.mu.l His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 .mu.M substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338)0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25 C, and then stopped by the addition of 70 .mu.l of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>117.95</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC740&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2430,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL3113130</t>
+          <t>CHEMBL1202518</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2438,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Clc1ccc(C(NC2CC2)c2ccc(-c3ncnc4[nH]cnc34)cc2)cc1</t>
+          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Clc1ccc(C(NC2CC2)c2ccc(-c3ncnc4[nH]cnc34)cc2)cc1</t>
+          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2453,66 +2271,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>375.86</v>
+        <v>506.53</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>470</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CHEMBL3118849</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin) using ATP/eNOS as substrate preincubated for 5 mins followed by substrate addition measured after 30 mins by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>129.65</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC7B0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2524,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL1098939</t>
+          <t>CHEMBL599448</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2532,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)Cc3ccccc3)cc21</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)Cc3ccccc3)cc21</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2547,66 +2339,40 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>461.53</v>
+        <v>383.88</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>151.13</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>CHEMBL1109952</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>87.04000000000001</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC890&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2618,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL4062453</t>
+          <t>CHEMBL247250</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2626,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CN(C)CCn1cc(-c2ccn3c(-c4ccc(C(N)=O)c(OCc5cccc(F)c5)c4)cnc3c2)cn1</t>
+          <t>CNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CN(C)CCn1cc(-c2ccn3c(-c4ccc(C(N)=O)c(OCc5cccc(F)c5)c4)cnc3c2)cn1</t>
+          <t>CNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2641,66 +2407,40 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>498.56</v>
+        <v>462.44</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>90.68000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>608</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>CHEMBL4003700</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>126.5</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC900&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2712,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL3649670</t>
+          <t>CHEMBL255592</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2720,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2nc3ccc(-c4ccccc4)nc3n2-c2ccc(C3(N)CCC3)cc2)c(N)n1</t>
+          <t>Cn1c(=O)n(-c2ccc(C(C)(C)C#N)cc2)c2c3cc(C#Cc4cccnc4)ccc3ncc21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2nc3ccc(-c4ccccc4)nc3n2-c2ccc(C3(N)CCC3)cc2)c(N)n1</t>
+          <t>Cn1c(=O)n(-c2ccc(C(C)(C)C#N)cc2)c2c3cc(C#Cc4cccnc4)ccc3ncc21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2735,66 +2475,40 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>435.54</v>
+        <v>443.51</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4</v>
-      </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>100.57</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>CHEMBL3706066</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Alpha Screen Assay: AKT1 activity was assayed using the GSK3-derived biotinylated peptide substrate, crosstide (biotin-GRPRTSSFAEG), and AlphaScreen (Amplified Luminescent Proximity Homogeneous Assay) technology. AKT1 activation was achieved by the addition of the activating kinases PDK1 and MAPKAPK2, lipid vesicles, and ATP. The extent of peptide phosphorylation was determined using a phospho-AKT substrate antibody and acceptor beads conjugated to Protein A and donor beads conjugated to streptavidin that bind to the biotin on the peptide. Excitation of the donor beads converted ambient oxygen to excited singlet oxygen which, when in close proximity to acceptor beads, reacted with acceptor beads resulting in signal amplification.</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>76.5</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC970&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2806,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1908343</t>
+          <t>CHEMBL259833</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2814,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CC1OC2OC(=O)OC2C2=C1C(=O)c1c(O)cccc1C2=O</t>
+          <t>Clc1c[nH]c2ncnc(N3CCc4nc[nH]c4C3)c12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CC1OC2OC(=O)OC2C2=C1C(=O)c1c(O)cccc1C2=O</t>
+          <t>Clc1c[nH]c2ncnc(N3CCc4nc[nH]c4C3)c12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2829,66 +2543,40 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>302.24</v>
+        <v>274.72</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>99.13</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>313</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>CHEMBL1018804</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.48999999999999</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BC9E0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2900,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL247798</t>
+          <t>CHEMBL1173384</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2908,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CCNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
+          <t>Cc1c[nH]c2ncnc(N3CCC(N)(CNC=O)C3)c12</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CCNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
+          <t>Cc1c[nH]c2ncnc(N3CCC(N)(CNC=O)C3)c12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2923,66 +2611,40 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>476.47</v>
+        <v>274.33</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>81</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>CHEMBL922918</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Inhibition of pAkt</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.93000000000001</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCA50&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2994,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL1823640</t>
+          <t>CHEMBL1096271</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3002,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=C(NC(c1ccc(Cl)cc1)C1CCNCC1)c1ccc2cnccc2c1</t>
+          <t>COc1cc2ncc3c(N)nc(-c4cncc(OC[C@@H](N)Cc5cccc(Cl)c5)c4)cc3c2cc1OC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=C(NC(c1ccc(Cl)cc1)C1CCNCC1)c1ccc2cnccc2c1</t>
+          <t>COc1cc2ncc3c(N)nc(-c4cncc(OC[C@@H](N)Cc5cccc(Cl)c5)c4)cc3c2cc1OC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3017,66 +2679,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>379.89</v>
+        <v>516</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>190</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>CHEMBL1825378</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>118.4</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCAC0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3088,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL3896518</t>
+          <t>CHEMBL493360</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3096,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(NC2CNCCC2c2ccc(Cl)c(F)c2)c2cncnc12</t>
+          <t>O=C1C[C@H]2O[C@@H](c3ccc(O)cc3)C3=C(C(=O)c4ccccc4C3=O)[C@H]2O1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(NC2CNCCC2c2ccc(Cl)c(F)c2)c2cncnc12</t>
+          <t>O=C1C[C@H]2O[C@@H](c3ccc(O)cc3)C3=C(C(=O)c4ccccc4C3=O)[C@H]2O1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3111,66 +2747,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>399.86</v>
+        <v>362.34</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>130</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>CHEMBL3887082</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 ul of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.50 0.1 ng/uL His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 uM substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338) 0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25° C, and then stopped by the addition of 70 ul of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>89.90000000000001</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCBA0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3182,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL4160193</t>
+          <t>CHEMBL437122</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3190,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(C)nc(NNC(=O)c2cccc3c(=O)c4ccccc4[nH]c23)nc1-c1ccccc1F</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1cnc2ccccc2c1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(C)nc(NNC(=O)c2cccc3c(=O)c4ccccc4[nH]c23)nc1-c1ccccc1F</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1cnc2ccccc2c1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3205,17 +2815,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>511.51</v>
+        <v>406.49</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
@@ -3227,44 +2837,18 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>126.07</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>CHEMBL4133625</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Inhibition of PH domain lacking AKT1 (unknown origin) using Tamara-labeled GRPRTSSFAEG peptide as substrate after 90 mins by fluorescence polarization IMAP assay</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.92</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCC10&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3276,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL3693559</t>
+          <t>CHEMBL211434</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3284,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C[C@H]1COCCN1c1nc(N2CCOCC2)nc2nc(-c3ccc(N)nc3)ccc12</t>
+          <t>O=C1Cc2ccc(N[C@H](COc3cncc(-c4ccc5c(n4)NC(=O)C5)c3)Cc3c[nH]c4ccccc34)nc2N1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C[C@H]1COCCN1c1nc(N2CCOCC2)nc2nc(-c3ccc(N)nc3)ccc12</t>
+          <t>O=C1Cc2ccc(N[C@H](COc3cncc(-c4ccc5c(n4)NC(=O)C5)c3)Cc3c[nH]c4ccccc34)nc2N1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3299,66 +2883,40 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>407.48</v>
+        <v>531.58</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>102.52</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>295.1</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>CHEMBL3705654</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>In Vitro Assay: This assay determines the ability of test compounds to inhibit phosphorylation of Serine 473 in Akt as assessed using Acumen Explorer technology (Acumen Bioscience Limited), a plate reader that can be used to rapidly quantitate features of images generated by laser-scanning.</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>133.92</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCCF0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3370,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL3962884</t>
+          <t>CHEMBL255360</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3378,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C[C@H](n1cnnc1-c1nc(NC(=O)c2cc(-n3cnc(C4CC4)c3)c(N3CCC(F)CC3)cn2)cs1)C(F)(F)F</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C[C@H](n1cnnc1-c1nc(NC(=O)c2cc(-n3cnc(C4CC4)c3)c(N3CCC(F)CC3)cn2)cs1)C(F)(F)F</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3393,66 +2951,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>575.6</v>
+        <v>528.62</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="n">
         <v>7</v>
       </c>
-      <c r="J37" t="n">
-        <v>7</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>6</v>
       </c>
-      <c r="L37" t="n">
-        <v>4</v>
-      </c>
       <c r="M37" t="n">
-        <v>106.65</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>CHEMBL3887422</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Time-Resolved Fluorescence Resonance energy transfer (TR-FRET) Immunoassay: The assay measures the phosphorylation level of a biotinylated peptide substrate by the ASK1 kinase using HTRF detection. This is a competitive, time-resolved fluorescence resonance energy transfer (TR-FRET) immunoassay, based on HTRF KinEASE-STK manual from Cisbio. Test compound, 1 uM STK3 peptide substrate, 4 nM of ASK1 kinase were incubated with 10 mM MOP buffer, pH. 7.0 containing 10 mM Mg-acetate, 0.025% NP-40, 1 mM DTT, 0.05% BSA and 1.5% glycerol for 30 minutes then 100 uM ATP was added to start the kinase reaction and incubated for 3 hr. Peptide antibody labeled with 1xEu3+ Cryptate buffer containing 10 mM EDTA and 125 nM Streptavidin XL665 were added to stop the reaction and phosphorylated peptide substrate was detected using Envision 2103 Multilabeled reader from PerkinElmer. The fluorescence was measured at 615 nm (Cryptate) and 665 nm (XL665) and a ratio of 665 nm/615 nm was calculated for each well.</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>137.55</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCD60&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3464,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL1800390</t>
+          <t>CHEMBL206183</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3472,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CCC[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)CN(CCCCCCN)C(=O)[C@@H](N)CCCNC(=N)N)C(=O)N[C@@H](Cc1ccc(O)cc1)C(=O)N[C@@H](CN)C(=O)N[C@@H](CCC(C)C)C(=O)N(CCCCN)CC(N)=O</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1csc2ccccc12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CCC[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)CN(CCCCCCN)C(=O)[C@@H](N)CCCNC(=N)N)C(=O)N[C@@H](Cc1ccc(O)cc1)C(=O)N[C@@H](CN)C(=O)N[C@@H](CCC(C)C)C(=O)N(CCCCN)CC(N)=O</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1csc2ccccc12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3487,66 +3019,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1089.4</v>
+        <v>387.51</v>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>477.32</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>160</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>CHEMBL1804368</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt using RPRTSSF peptide and [gamma32]ATP by cell-free radioactive assay</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>61.03</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCDD0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3558,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL1940997</t>
+          <t>CHEMBL425155</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3566,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3581,66 +3087,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>613.48</v>
+        <v>502.61</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>165.53</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>800</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>CHEMBL1944084</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT-1</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>105.16</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCF20&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3652,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL2012702</t>
+          <t>CHEMBL203329</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3660,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
+          <t>N[C@H](CCc1cnc(Cl)c(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
+          <t>N[C@H](CCc1cnc(Cl)c(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3675,66 +3155,40 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>493.84</v>
+        <v>402.93</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
         <v>7</v>
       </c>
-      <c r="J40" t="n">
-        <v>6</v>
-      </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>53</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CHEMBL2020583</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 after 3 hrs by luciferase based chemiluminescence assay</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.59</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BCF90&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3746,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL2347053</t>
+          <t>CHEMBL206732</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3754,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C/c1c[nH]nc1-c1ccccc1[N+](=O)[O-]</t>
+          <t>N[C@H](CNc1cncc(Oc2cccc3cnccc23)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C/c1c[nH]nc1-c1ccccc1[N+](=O)[O-]</t>
+          <t>N[C@H](CNc1cncc(Oc2cccc3cnccc23)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3769,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>332.32</v>
+        <v>409.49</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>100.92</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>11</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL2353277</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) after 10 mins by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>88.84999999999999</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD000&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3840,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL3298512</t>
+          <t>CHEMBL375486</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3848,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C=CC(=O)[C@H](Cc1ccccc1)NC(=O)OC(C)(C)C</t>
+          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C=CC(=O)[C@H](Cc1ccccc1)NC(=O)OC(C)(C)C</t>
+          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3863,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>275.35</v>
+        <v>424.51</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>580</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL3364070</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) after 1 hr by Z'-LYTE kinase assay in presence of 75 uM ATP</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>94.64</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD070&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3934,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL574646</t>
+          <t>CHEMBL359864</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3942,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/c2ccccn2)CNC/C1=C\c1ccccn1</t>
+          <t>Oc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccccc4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/c2ccccn2)CNC/C1=C\c1ccccn1</t>
+          <t>Oc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccccc4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3957,11 +3359,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>277.33</v>
+        <v>510.64</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -3970,53 +3372,27 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>20</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL2344124</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT1 (unknown origin) by FRET-based Z'-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>54.18</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD0E0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -4028,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL3414676</t>
+          <t>CHEMBL383527</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4036,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC(C)CCCC1(C)CC(=O)c2cc(O)ccc2O1</t>
+          <t>N[C@@H](Cc1cccc2ccccc12)C(=O)Nc1cncc(/C=C/c2ccncc2)c1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC(C)CCCC1(C)CC(=O)c2cc(O)ccc2O1</t>
+          <t>N[C@@H](Cc1cccc2ccccc12)C(=O)Nc1cncc(/C=C/c2ccncc2)c1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4051,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>262.35</v>
+        <v>394.48</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>280</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL3419779</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Binding affinity to GST-tagged PH domain of AKT (unknown origin) by surface Plasmon resonance spectroscopy</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.90000000000001</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD150&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -4122,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL244695</t>
+          <t>CHEMBL1173304</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4130,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc2c(c1)C1C=CCC1C(C(=O)O)N2</t>
+          <t>Cc1c[nH]c2ncnc(N3CC[C@H](NC(=O)Nc4ccccc4)C3)c12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc2c(c1)C1C=CCC1C(C(=O)O)N2</t>
+          <t>Cc1c[nH]c2ncnc(N3CC[C@H](NC(=O)Nc4ccccc4)C3)c12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4145,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>259.26</v>
+        <v>336.4</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
         <v>3</v>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
       <c r="M45" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL4419259</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT PH-domain (unknown origin) at 0.01 to 50 uM by SPR spectroscopy</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>85.94</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD1C0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -4216,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL1940249</t>
+          <t>CHEMBL574290</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4224,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC(C)n1cc(C(=O)c2cncc(N[C@@H]3CNC[C@@H]3c3ccc(F)cc3)n2)c2c(N)ncnc21</t>
+          <t>Cn1cc(C(CN)Oc2cncc(/C=C/c3ccncc3)c2)c2ccccc21</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC(C)n1cc(C(=O)c2cncc(N[C@@H]3CNC[C@@H]3c3ccc(F)cc3)n2)c2c(N)ncnc21</t>
+          <t>Cn1cc(C(CN)Oc2cncc(/C=C/c3ccncc3)c2)c2ccccc21</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4239,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>460.52</v>
+        <v>370.46</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>123.64</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>10</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1942065</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of His-tagged AKT1 using 5FAM-GRPRTSSFAEGCONH2 as substrate by fluorescence based assay</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>65.95999999999999</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD230&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -4310,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL4579008</t>
+          <t>CHEMBL178397</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4318,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1ccc(-c2nc(SCC(=O)O)c3c(=O)n(C)c(=O)n(C)c3n2)cc1</t>
+          <t>Cc1nc(-c2ccc(CN3CCC(n4c(=O)[nH]c5ccccc54)CC3)cc2)c(-c2ccccc2)[nH]c1=O</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1ccc(-c2nc(SCC(=O)O)c3c(=O)n(C)c(=O)n(C)c3n2)cc1</t>
+          <t>Cc1nc(-c2ccc(CN3CCC(n4c(=O)[nH]c5ccccc54)CC3)cc2)c(-c2ccccc2)[nH]c1=O</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4333,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>372.41</v>
+        <v>491.6</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>107.08</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.00128</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL4419259</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT PH-domain (unknown origin) at 0.01 to 50 uM by SPR spectroscopy</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.78</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD2A0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4404,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL2219422</t>
+          <t>CHEMBL521658</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4412,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2cccc(F)c2)sc1Cl</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2cccc(F)c2)sc1Cl</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4427,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>427.33</v>
+        <v>425.49</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>72.94</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL4307006</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>137.14</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD310&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4498,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3314097</t>
+          <t>CHEMBL252456</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4506,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CC[C@H](C)[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)[C@H](CCCNC(=N)N)NC(=O)C(CCCCCCCCn1cc(CCCC(=O)NC(CCCCCCCCn2cc(C[C@H](NC(C)=O)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](Cc3c[nH]c4ccccc34)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(N)=O)nn2)C(=O)N[C@H](C(=O)N[C@@H](Cc2ccccc2)C(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)NCCNC(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)C(C)C)nn1)NC(C)=O)C(N)=O</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CC[C@H](C)[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)[C@H](CCCNC(=N)N)NC(=O)C(CCCCCCCCn1cc(CCCC(=O)NC(CCCCCCCCn2cc(C[C@H](NC(C)=O)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](Cc3c[nH]c4ccccc34)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(N)=O)nn2)C(=O)N[C@H](C(=O)N[C@@H](Cc2ccccc2)C(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)NCCNC(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)C(C)C)nn1)NC(C)=O)C(N)=O</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4521,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3412.14</v>
+        <v>505.65</v>
       </c>
       <c r="H49" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>1227.86</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>200</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL3364170</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>93.79000000000001</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD380&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4592,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3900299</t>
+          <t>CHEMBL470200</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4600,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)OCC(COP(=O)(O)OC1[C@H](O)[C@H](OP(=O)(O)O)C(OP(=O)(O)O)[C@H](OP(=O)(O)O)[C@H]1O)OC(=O)CCCCCCCCCCCCCCC</t>
+          <t>NCC(NC(=O)c1cc(-c2ccccc2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)OCC(COP(=O)(O)OC1[C@H](O)[C@H](OP(=O)(O)O)C(OP(=O)(O)O)[C@H](OP(=O)(O)O)[C@H]1O)OC(=O)CCCCCCCCCCCCCCC</t>
+          <t>NCC(NC(=O)c1cc(-c2ccccc2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4615,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1050.98</v>
+        <v>438.56</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>349.1</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>260</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL3888333</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>SPR Competitive Binding Assay: SPR interaction analyses were performed with a Biacore 2000, using Biacore 2000 Control Software v3.2 and BIAevaluation v4.1 analysis software (Biacore) as described in Mol Cancer Ther 7:2621 (2008). For the competitive binding assays and the Ki determination, PtdIns(3,4,5)phosphate-biotin labeled liposomes (Echelon Biosciences) and SA chips were used with increasing concentrations of the compound tested.</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.8</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD3F0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4686,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL608533</t>
+          <t>CHEMBL445180</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4694,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3ccoc3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3ccoc3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4709,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>570.65</v>
+        <v>369.39</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>950</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1244719</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT1</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>144.04</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A842BD460&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
